--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91352F50-0C89-43B3-978E-787F46581645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ED3D26-606C-486B-ACFE-8E5F04DDAC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="93">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,63 +107,6 @@
     <t>이름_021</t>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,25 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text_001_Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.BookStartScene</t>
-  </si>
-  <si>
     <t>BackGround/00000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,19 +143,200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엥</t>
+    <t>[어지러워...]</t>
+  </si>
+  <si>
+    <t>[여긴...]</t>
+  </si>
+  <si>
+    <t>미완의 도서관에 온 것을 환영해요!</t>
+  </si>
+  <si>
+    <t>[깜짝이야!]</t>
+  </si>
+  <si>
+    <t>이런 제가 놀래킨건가요? 미안해요...</t>
+  </si>
+  <si>
+    <t>[괜찮아요]</t>
+  </si>
+  <si>
+    <t>헤헤 도서관에 작가가 온 것이 무척이나 간만이라... 너무 신이나서</t>
+  </si>
+  <si>
+    <t xml:space="preserve">에헴 다시 정식으로 환영할께요 </t>
+  </si>
+  <si>
+    <t>안녕하세요 사서 해마라고 합니다. 미완의 도서관에 온 것을 진심으로 환영해요!</t>
+  </si>
+  <si>
+    <t>저...</t>
+  </si>
+  <si>
+    <t>[?]</t>
+  </si>
+  <si>
+    <t>혹시 신규 작가님이실까요?</t>
+  </si>
+  <si>
+    <t>선택지</t>
+  </si>
+  <si>
+    <t>[네...?(신규 작가가 뭐지?)][아니야]</t>
+  </si>
+  <si>
+    <t>[네...?(신규 작가가 뭐지?)]</t>
+  </si>
+  <si>
+    <t>역시 신규 작가님이시군요!</t>
+  </si>
+  <si>
+    <t>제가 이곳에 온 작가님들의 리스트에서 뵙지 못해서 물어봤는데 역시!</t>
+  </si>
+  <si>
+    <t>우선 이 도서관은 미완의 도서관이라고 해요</t>
+  </si>
+  <si>
+    <t>(미완의 도서관?)</t>
+  </si>
+  <si>
+    <t>네 미완성된 이야기들을 모아두고 있는 도서관이랍니다.</t>
+  </si>
+  <si>
+    <t>그런데 이 이야기들을 완성 시키려면 작가님같은 작가들이 필요해요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작가님들만이 미완성된 이야기들을 완결시킬 수 있거든요 </t>
+  </si>
+  <si>
+    <t>(왜?)</t>
+  </si>
+  <si>
+    <t>아 책을 쓰는 과정이 위험하거든요</t>
+  </si>
+  <si>
+    <t>(위험?)</t>
+  </si>
+  <si>
+    <t>흔히 생각하는 글을 쓰는 것이 아닌 책 안으로 들어가 주인공이 되서 결말을 봐야 하거든요</t>
+  </si>
+  <si>
+    <t>(그럼... 목숨이 위험해?)</t>
+  </si>
+  <si>
+    <t>아뇨 책에서 죽는다고 작가님이 실제로 죽지는 않아요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그냥 다시 책 밖으로 나오게 되요, </t>
+  </si>
+  <si>
+    <t>결말을 보실 때까지 도전할 수 있고</t>
+  </si>
+  <si>
+    <t>만약 결말을 보셔도 책 속의 다른 결말을 보고 싶으시면 다시 도전할 수도 있어요</t>
+  </si>
+  <si>
+    <t>(근데 나는 그냥 집에 가고 싶은데)</t>
+  </si>
+  <si>
+    <t>책의 결말을 1개라도 보시면 집으로 돌아가실 수 있어요</t>
+  </si>
+  <si>
+    <t>(...그냥 집에 보내주면 안돼?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">죄송하지만 그건 힘들어요 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">작가님이 기억 못하시겠지만 이 도서관에 오시는 </t>
+  </si>
+  <si>
+    <t>모든 작가는 저희 도서관 관장님과 어떤 약속? 계약?을 하고 도착하시거든요</t>
+  </si>
+  <si>
+    <t>[...]</t>
+  </si>
+  <si>
+    <t>그럼 마저 설명해 드릴께요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보통은 작가님들이 여기서 원하는 책을 선택하시지만 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">작가님은 신규 작가셔서 정해진 책의 결말을 보셔야 다른 책을 선택하실 수 있어요 </t>
+  </si>
+  <si>
+    <t>작가님이 처음 맡은 책은... 이 책이네요!</t>
+  </si>
+  <si>
+    <t>책은 작가님의 선택에 따라 이야기와 결말이 달라질꺼에요</t>
+  </si>
+  <si>
+    <t>물론 작가님이 원한다면 다시 결말을 쓸 수도 있구요</t>
+  </si>
+  <si>
+    <t>[일단 알겠어]</t>
+  </si>
+  <si>
+    <t>그럼 이야기의 결말을 부탁드립니다</t>
+  </si>
+  <si>
+    <t>[아니야]</t>
+  </si>
+  <si>
+    <t>아하 제가 이곳에 일한지 얼마 안되서 헤헤</t>
+  </si>
+  <si>
+    <t>그럼 작가명이 어떻게 되세요? 다음엔 꼭 기억할께요</t>
+  </si>
+  <si>
+    <t>멋진 이름이에요!</t>
+  </si>
+  <si>
+    <t>혹시 괜찮으시다면 자리로 안내해드려도 될까요?</t>
+  </si>
+  <si>
+    <t>[그래]</t>
+  </si>
+  <si>
+    <t>그럼 이쪽으로!</t>
+  </si>
+  <si>
+    <t>도착했습니다~</t>
+  </si>
+  <si>
+    <t>[응]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오호 새로운</t>
+    <t>작가님 그럼 제가 자리로 안내해드리면서 이 도서관에 대한 설명부터 해드릴께요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.BookStartScene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +346,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -561,17 +674,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="4" max="4" width="81.875" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -596,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -605,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -619,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -640,7 +753,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -651,16 +764,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -672,7 +785,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -686,13 +799,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -704,7 +817,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -718,13 +831,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -736,7 +849,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -750,13 +863,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -768,7 +881,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -782,13 +895,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -800,7 +913,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -814,13 +927,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -832,7 +945,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -846,13 +959,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -864,7 +977,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -878,13 +991,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -896,7 +1009,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -910,13 +1023,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -928,7 +1041,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -942,13 +1055,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -960,7 +1073,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -974,13 +1087,13 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -992,7 +1105,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1006,13 +1119,13 @@
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1024,7 +1137,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1038,13 +1151,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1056,7 +1169,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1070,13 +1183,13 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1088,7 +1201,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1101,14 +1214,12 @@
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1120,7 +1231,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1134,13 +1245,13 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1152,7 +1263,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1166,13 +1277,13 @@
         <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1181,10 +1292,10 @@
         <v>18</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1198,13 +1309,13 @@
         <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1216,7 +1327,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1230,13 +1341,13 @@
         <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1248,7 +1359,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1262,26 +1373,1269 @@
         <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>34</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>35</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>36</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>37</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>39</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>40</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>41</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>42</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
         <v>44</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="I45" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
         <v>45</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="I46" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>-100</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-100</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>46</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>47</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>48</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>49</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>50</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>51</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
         <v>52</v>
       </c>
+      <c r="I53" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>53</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>54</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>55</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>56</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>57</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>58</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ED3D26-606C-486B-ACFE-8E5F04DDAC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A441A3-98EB-489A-8ACB-453602D92DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="94">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,30 +50,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_003</t>
-  </si>
-  <si>
     <t>이름_004</t>
   </si>
   <si>
-    <t>이름_005</t>
-  </si>
-  <si>
     <t>이름_006</t>
   </si>
   <si>
-    <t>이름_007</t>
-  </si>
-  <si>
-    <t>이름_008</t>
-  </si>
-  <si>
-    <t>이름_009</t>
-  </si>
-  <si>
-    <t>이름_010</t>
-  </si>
-  <si>
     <t>이름_011</t>
   </si>
   <si>
@@ -158,34 +140,31 @@
     <t>이런 제가 놀래킨건가요? 미안해요...</t>
   </si>
   <si>
-    <t>[괜찮아요]</t>
-  </si>
-  <si>
     <t>헤헤 도서관에 작가가 온 것이 무척이나 간만이라... 너무 신이나서</t>
   </si>
   <si>
     <t xml:space="preserve">에헴 다시 정식으로 환영할께요 </t>
   </si>
   <si>
-    <t>안녕하세요 사서 해마라고 합니다. 미완의 도서관에 온 것을 진심으로 환영해요!</t>
-  </si>
-  <si>
-    <t>저...</t>
-  </si>
-  <si>
-    <t>[?]</t>
-  </si>
-  <si>
-    <t>혹시 신규 작가님이실까요?</t>
-  </si>
-  <si>
-    <t>선택지</t>
-  </si>
-  <si>
-    <t>[네...?(신규 작가가 뭐지?)][아니야]</t>
-  </si>
-  <si>
-    <t>[네...?(신규 작가가 뭐지?)]</t>
+    <t>05.BookStartScene</t>
+  </si>
+  <si>
+    <t>[괜찮아]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 뵙는 얼굴인데, 혹시 신규 작가님이실까요?</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>안녕하세요 사서 멜 이라고 합니다. 미완의 도서관에 온 것을 진심으로 환영해요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>역시 신규 작가님이시군요!</t>
@@ -194,94 +173,145 @@
     <t>제가 이곳에 온 작가님들의 리스트에서 뵙지 못해서 물어봤는데 역시!</t>
   </si>
   <si>
+    <t>그럼 제가 작가님께 이 도서관에 대한 설명부터 해드릴께요!</t>
+  </si>
+  <si>
     <t>우선 이 도서관은 미완의 도서관이라고 해요</t>
   </si>
   <si>
-    <t>(미완의 도서관?)</t>
+    <t>책의 결말을 1개라도 보시면 집으로 돌아가실 수 있어요</t>
+  </si>
+  <si>
+    <t>그리고 집에 돌아가셔도 언제든지 도서관에 다시 오실수도 있구요</t>
+  </si>
+  <si>
+    <t>작가님이 책을 쓰겠다고 이미 계약도 하셨는 걸요...</t>
+  </si>
+  <si>
+    <t>네 저희 도서관측에서 보낸 편지를 수락하셨잖아요</t>
+  </si>
+  <si>
+    <t>[...설마 그 읽을 수 도 없던 이상한 편지가]</t>
+  </si>
+  <si>
+    <t>네 맞아요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보통은 작가님들이 여기서 원하는 책을 선택하시지만 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">작가님은 신규 작가셔서 정해진 책의 결말을 보셔야 다른 책을 선택하실 수 있어요 </t>
+  </si>
+  <si>
+    <t>작가님이 처음 맡은 책은... 이 책이네요!</t>
+  </si>
+  <si>
+    <t>책은 작가님의 선택에 따라 이야기와 결말이 달라질꺼에요</t>
+  </si>
+  <si>
+    <t>[일단 알겠어]</t>
+  </si>
+  <si>
+    <t>그럼 이야기의 결말을 부탁드립니다</t>
+  </si>
+  <si>
+    <t>[미완의 도서관?]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>네 미완성된 이야기들을 모아두고 있는 도서관이랍니다.</t>
-  </si>
-  <si>
-    <t>그런데 이 이야기들을 완성 시키려면 작가님같은 작가들이 필요해요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">작가님들만이 미완성된 이야기들을 완결시킬 수 있거든요 </t>
-  </si>
-  <si>
-    <t>(왜?)</t>
-  </si>
-  <si>
-    <t>아 책을 쓰는 과정이 위험하거든요</t>
-  </si>
-  <si>
-    <t>(위험?)</t>
-  </si>
-  <si>
-    <t>흔히 생각하는 글을 쓰는 것이 아닌 책 안으로 들어가 주인공이 되서 결말을 봐야 하거든요</t>
-  </si>
-  <si>
-    <t>(그럼... 목숨이 위험해?)</t>
-  </si>
-  <si>
-    <t>아뇨 책에서 죽는다고 작가님이 실제로 죽지는 않아요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그냥 다시 책 밖으로 나오게 되요, </t>
-  </si>
-  <si>
-    <t>결말을 보실 때까지 도전할 수 있고</t>
-  </si>
-  <si>
-    <t>만약 결말을 보셔도 책 속의 다른 결말을 보고 싶으시면 다시 도전할 수도 있어요</t>
-  </si>
-  <si>
-    <t>(근데 나는 그냥 집에 가고 싶은데)</t>
-  </si>
-  <si>
-    <t>책의 결말을 1개라도 보시면 집으로 돌아가실 수 있어요</t>
-  </si>
-  <si>
-    <t>(...그냥 집에 보내주면 안돼?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">죄송하지만 그건 힘들어요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">작가님이 기억 못하시겠지만 이 도서관에 오시는 </t>
-  </si>
-  <si>
-    <t>모든 작가는 저희 도서관 관장님과 어떤 약속? 계약?을 하고 도착하시거든요</t>
-  </si>
-  <si>
-    <t>[...]</t>
-  </si>
-  <si>
-    <t>그럼 마저 설명해 드릴께요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보통은 작가님들이 여기서 원하는 책을 선택하시지만 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">작가님은 신규 작가셔서 정해진 책의 결말을 보셔야 다른 책을 선택하실 수 있어요 </t>
-  </si>
-  <si>
-    <t>작가님이 처음 맡은 책은... 이 책이네요!</t>
-  </si>
-  <si>
-    <t>책은 작가님의 선택에 따라 이야기와 결말이 달라질꺼에요</t>
-  </si>
-  <si>
-    <t>물론 작가님이 원한다면 다시 결말을 쓸 수도 있구요</t>
-  </si>
-  <si>
-    <t>[일단 알겠어]</t>
-  </si>
-  <si>
-    <t>그럼 이야기의 결말을 부탁드립니다</t>
-  </si>
-  <si>
-    <t>[아니야]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 더 쉽게 설명하자면 이 도서관에 있는 각 각의 책이 하나의 세계라고 생각하시면 되요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 저희 도서관에서는 이 책들을 결말을 보기 위해 작가들을 모집하고 있어요 그리ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[잠깐만 근데 나는 작가도 아닌데 왜 데려온거야?]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작가님이 생각하시는 작가와 저희 도서관에서 일하는 작가님들은 좀 달라요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 도서관에 있는 책들은 좀 특별해서 선발된 작가님들만이 미완성된 책들의 결말을 정할 수 있거든요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 미완성된 책들은 모두 책 속 세계의 주인공이 어떤 이유로 사라져서 완성되지 못한 책들이구요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 저희 관장님이 각 책과 어울리는 작가님들을 모집하시고 데려온답니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책의 결말을 보기 위해서는 작가님들이 직접 책 속으로 들어가서 이야기를 진행해야 하거든요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결말을 보실 때까지 계속 도전하실 수 있어요</t>
+  </si>
+  <si>
+    <t>[근데 왜 너희가 하지 않고 작가들을 모집하는 거야?]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희는 책에 들어 갈 수 없어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 속에 들어갈 수 있는건 제약이 없는 인간만 들어갈 수 있거든요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[그럼... 책에 들어가서 다치거나 죽으면…]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정 마세요 책에서 다치셔도 작가님이 실제로 다치시지는 않아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 다시 책 밖으로 나오게 되요, 작가님의 육체는 이 도서관에 있고 영혼만 책으로 들어간거라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[근데 난 그냥 집에 가고 싶은데]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네? 죄송하지만 그건 힘들어요 게다가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[...그냥 집에 보내주면 안돼? 에초에 나는 여기 오겠다고 한적도 없고... ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[게다가?]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[내가???]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[거절을 거절하던데...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이제 책이 있는 곳으로 안내해드릴께요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작가님이 원한다면 결말을 보셔도 다시 책속으로 들어가 책 속의 다른 결말을 볼 수도 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아하 제가 이곳에 일한지 얼마 안되서 헤헤</t>
@@ -309,7 +339,7 @@
   </si>
   <si>
     <r>
-      <t>[</t>
+      <t>[________</t>
     </r>
     <r>
       <rPr>
@@ -325,11 +355,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작가님 그럼 제가 자리로 안내해드리면서 이 도서관에 대한 설명부터 해드릴께요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.BookStartScene</t>
+    <t>ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,15 +707,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="81.875" customWidth="1"/>
+    <col min="4" max="4" width="92.75" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -709,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -718,10 +749,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -732,16 +763,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -753,7 +784,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -761,19 +792,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -785,7 +816,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -793,19 +824,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -817,7 +848,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -825,19 +856,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -849,7 +880,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -857,19 +888,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -881,7 +912,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -889,19 +920,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -913,7 +944,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -921,19 +952,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -945,7 +976,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -956,16 +987,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -977,7 +1008,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -985,19 +1016,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1009,7 +1040,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1020,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
@@ -1038,10 +1069,10 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1052,13 +1083,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
@@ -1073,7 +1104,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1081,19 +1112,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1105,7 +1136,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1116,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1137,7 +1168,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1148,16 +1179,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1169,7 +1200,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1180,16 +1211,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1201,7 +1232,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1212,14 +1243,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1231,7 +1264,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1242,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1263,7 +1296,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1274,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1295,7 +1328,7 @@
         <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1306,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1327,7 +1360,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1338,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1359,7 +1392,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1370,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1391,7 +1424,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1402,16 +1435,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1423,7 +1456,7 @@
         <v>-100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1434,16 +1467,16 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1455,7 +1488,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1466,16 +1499,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1487,7 +1520,7 @@
         <v>-100</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1498,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1519,7 +1552,7 @@
         <v>-100</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1530,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1551,7 +1584,7 @@
         <v>-100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1562,16 +1595,16 @@
         <v>-1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1583,7 +1616,7 @@
         <v>-100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1594,16 +1627,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1615,7 +1648,7 @@
         <v>-100</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1626,16 +1659,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1647,7 +1680,7 @@
         <v>-100</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1658,16 +1691,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1679,7 +1712,7 @@
         <v>-100</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1690,16 +1723,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1711,7 +1744,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1722,16 +1755,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1743,7 +1776,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1754,16 +1787,16 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1775,7 +1808,7 @@
         <v>-100</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1786,16 +1819,16 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1807,7 +1840,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1818,16 +1851,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1839,7 +1872,7 @@
         <v>-100</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1850,16 +1883,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" t="s">
-        <v>68</v>
+        <v>19</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1871,7 +1904,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1882,16 +1915,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1903,7 +1936,7 @@
         <v>-100</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1914,16 +1947,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>70</v>
+        <v>19</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1935,7 +1968,7 @@
         <v>-100</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1946,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" t="s">
-        <v>71</v>
+        <v>19</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1967,7 +2000,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1978,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" t="s">
-        <v>72</v>
+        <v>19</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1999,7 +2032,7 @@
         <v>-100</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2010,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" t="s">
-        <v>73</v>
+        <v>19</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -2031,7 +2064,7 @@
         <v>-100</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2042,16 +2075,16 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2063,7 +2096,7 @@
         <v>-100</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2074,16 +2107,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2095,7 +2128,7 @@
         <v>-100</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2106,16 +2139,16 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" t="s">
-        <v>76</v>
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2127,7 +2160,7 @@
         <v>-100</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2138,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" t="s">
-        <v>77</v>
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2159,7 +2192,7 @@
         <v>-100</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2170,16 +2203,16 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" t="s">
-        <v>78</v>
+        <v>19</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2191,7 +2224,7 @@
         <v>-100</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2202,16 +2235,16 @@
         <v>-1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>79</v>
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2223,7 +2256,7 @@
         <v>-100</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2234,16 +2267,16 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" t="s">
-        <v>80</v>
+        <v>19</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2255,7 +2288,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2266,16 +2299,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2287,7 +2320,7 @@
         <v>-100</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2298,16 +2331,16 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2319,7 +2352,7 @@
         <v>-100</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2330,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2351,7 +2384,7 @@
         <v>-100</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2362,13 +2395,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>26</v>
@@ -2383,7 +2416,7 @@
         <v>-100</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2394,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2415,7 +2448,7 @@
         <v>-100</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2426,16 +2459,16 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2447,7 +2480,7 @@
         <v>-100</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2458,16 +2491,16 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2479,7 +2512,7 @@
         <v>-100</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2490,16 +2523,16 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2511,7 +2544,7 @@
         <v>-100</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2522,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2543,7 +2576,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2554,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2575,7 +2608,7 @@
         <v>-100</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2586,39 +2619,93 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
         <v>89</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>-100</v>
+        <v>59</v>
       </c>
       <c r="I60" s="1">
         <v>-100</v>
       </c>
       <c r="J60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>60</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F63" s="1"/>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A441A3-98EB-489A-8ACB-453602D92DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4352E646-C373-4A89-A73D-C51AACBB4379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="79">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,45 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_004</t>
-  </si>
-  <si>
-    <t>이름_006</t>
-  </si>
-  <si>
-    <t>이름_011</t>
-  </si>
-  <si>
-    <t>이름_012</t>
-  </si>
-  <si>
-    <t>이름_013</t>
-  </si>
-  <si>
-    <t>이름_014</t>
-  </si>
-  <si>
-    <t>이름_015</t>
-  </si>
-  <si>
-    <t>이름_016</t>
-  </si>
-  <si>
-    <t>이름_017</t>
-  </si>
-  <si>
-    <t>이름_018</t>
-  </si>
-  <si>
-    <t>이름_019</t>
-  </si>
-  <si>
-    <t>이름_020</t>
-  </si>
-  <si>
-    <t>이름_021</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,42 +82,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[어지러워...]</t>
+  </si>
+  <si>
+    <t>[여긴...]</t>
+  </si>
+  <si>
+    <t>미완의 도서관에 온 것을 환영해요!</t>
+  </si>
+  <si>
+    <t>[깜짝이야!]</t>
+  </si>
+  <si>
+    <t>이런 제가 놀래킨건가요? 미안해요...</t>
+  </si>
+  <si>
+    <t>헤헤 도서관에 작가가 온 것이 무척이나 간만이라... 너무 신이나서</t>
+  </si>
+  <si>
+    <t xml:space="preserve">에헴 다시 정식으로 환영할께요 </t>
+  </si>
+  <si>
+    <t>05.BookStartScene</t>
+  </si>
+  <si>
+    <t>[괜찮아]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 뵙는 얼굴인데, 혹시 신규 작가님이실까요?</t>
+  </si>
+  <si>
     <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[어지러워...]</t>
-  </si>
-  <si>
-    <t>[여긴...]</t>
-  </si>
-  <si>
-    <t>미완의 도서관에 온 것을 환영해요!</t>
-  </si>
-  <si>
-    <t>[깜짝이야!]</t>
-  </si>
-  <si>
-    <t>이런 제가 놀래킨건가요? 미안해요...</t>
-  </si>
-  <si>
-    <t>헤헤 도서관에 작가가 온 것이 무척이나 간만이라... 너무 신이나서</t>
-  </si>
-  <si>
-    <t xml:space="preserve">에헴 다시 정식으로 환영할께요 </t>
-  </si>
-  <si>
-    <t>05.BookStartScene</t>
-  </si>
-  <si>
-    <t>[괜찮아]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처음 뵙는 얼굴인데, 혹시 신규 작가님이실까요?</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>안녕하세요 사서 멜 이라고 합니다. 미완의 도서관에 온 것을 진심으로 환영해요!</t>
@@ -207,9 +164,6 @@
   </si>
   <si>
     <t>책은 작가님의 선택에 따라 이야기와 결말이 달라질꺼에요</t>
-  </si>
-  <si>
-    <t>[일단 알겠어]</t>
   </si>
   <si>
     <t>그럼 이야기의 결말을 부탁드립니다</t>
@@ -355,11 +309,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄹ</t>
+    <t>[일단 알겠어]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -740,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -749,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -763,16 +717,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -784,7 +738,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -795,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -816,7 +770,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -827,16 +781,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -848,7 +802,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -859,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -880,7 +834,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -891,16 +845,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -912,7 +866,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -923,16 +877,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -944,7 +898,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -955,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -976,7 +930,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -987,16 +941,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1008,7 +962,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1019,16 +973,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1040,7 +994,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1051,16 +1005,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1072,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1080,19 +1034,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1104,7 +1058,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1112,19 +1066,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1136,7 +1090,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1144,19 +1098,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1168,7 +1122,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1179,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1200,7 +1154,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1211,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1232,7 +1186,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1243,16 +1197,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1264,7 +1218,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1272,19 +1226,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1296,7 +1250,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1307,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1328,7 +1282,7 @@
         <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1336,19 +1290,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1360,7 +1314,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1368,19 +1322,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1392,7 +1346,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1400,19 +1354,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1424,7 +1378,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1435,16 +1389,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1456,7 +1410,7 @@
         <v>-100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1464,19 +1418,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1488,7 +1442,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1499,16 +1453,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1520,7 +1474,7 @@
         <v>-100</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1531,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1552,7 +1506,7 @@
         <v>-100</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1563,16 +1517,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1584,7 +1538,7 @@
         <v>-100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1592,19 +1546,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1616,7 +1570,7 @@
         <v>-100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1624,19 +1578,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1648,7 +1602,7 @@
         <v>-100</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1656,19 +1610,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1680,7 +1634,7 @@
         <v>-100</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1691,16 +1645,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1712,7 +1666,7 @@
         <v>-100</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1720,19 +1674,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1744,7 +1698,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1752,19 +1706,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1776,7 +1730,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1784,19 +1738,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1808,7 +1762,7 @@
         <v>-100</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1819,16 +1773,16 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1840,7 +1794,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1851,16 +1805,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1872,7 +1826,7 @@
         <v>-100</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1883,16 +1837,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1904,7 +1858,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1915,16 +1869,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1936,7 +1890,7 @@
         <v>-100</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1944,19 +1898,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1968,7 +1922,7 @@
         <v>-100</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1979,16 +1933,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2000,7 +1954,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2008,19 +1962,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2032,7 +1986,7 @@
         <v>-100</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2043,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -2064,7 +2018,7 @@
         <v>-100</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2075,16 +2029,16 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2096,7 +2050,7 @@
         <v>-100</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2107,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2128,7 +2082,7 @@
         <v>-100</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2139,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2160,7 +2114,7 @@
         <v>-100</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2168,19 +2122,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2192,7 +2146,7 @@
         <v>-100</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2203,16 +2157,16 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2224,7 +2178,7 @@
         <v>-100</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2232,19 +2186,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2256,7 +2210,7 @@
         <v>-100</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2267,16 +2221,16 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2288,7 +2242,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2296,19 +2250,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2320,7 +2274,7 @@
         <v>-100</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2328,19 +2282,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2352,7 +2306,7 @@
         <v>-100</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2360,19 +2314,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2384,7 +2338,7 @@
         <v>-100</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2395,16 +2349,16 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2416,7 +2370,7 @@
         <v>-100</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2424,19 +2378,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2448,7 +2402,7 @@
         <v>-100</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2456,19 +2410,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2480,7 +2434,7 @@
         <v>-100</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2488,19 +2442,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2512,7 +2466,7 @@
         <v>-100</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2523,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2544,7 +2498,7 @@
         <v>-100</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2555,16 +2509,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2576,7 +2530,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2584,19 +2538,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2608,7 +2562,7 @@
         <v>-100</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2616,19 +2570,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2640,7 +2594,7 @@
         <v>-100</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2648,19 +2602,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2672,7 +2626,7 @@
         <v>-100</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2683,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2704,24 +2658,37 @@
         <v>-100</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4352E646-C373-4A89-A73D-C51AACBB4379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8E122C-6D79-43F5-AB1B-1911369D9222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="80">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,9 +136,6 @@
     <t>우선 이 도서관은 미완의 도서관이라고 해요</t>
   </si>
   <si>
-    <t>책의 결말을 1개라도 보시면 집으로 돌아가실 수 있어요</t>
-  </si>
-  <si>
     <t>그리고 집에 돌아가셔도 언제든지 도서관에 다시 오실수도 있구요</t>
   </si>
   <si>
@@ -198,73 +195,6 @@
   </si>
   <si>
     <t>그리고 미완성된 책들은 모두 책 속 세계의 주인공이 어떤 이유로 사라져서 완성되지 못한 책들이구요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래서 저희 관장님이 각 책과 어울리는 작가님들을 모집하시고 데려온답니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책의 결말을 보기 위해서는 작가님들이 직접 책 속으로 들어가서 이야기를 진행해야 하거든요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결말을 보실 때까지 계속 도전하실 수 있어요</t>
-  </si>
-  <si>
-    <t>[근데 왜 너희가 하지 않고 작가들을 모집하는 거야?]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저희는 책에 들어 갈 수 없어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 속에 들어갈 수 있는건 제약이 없는 인간만 들어갈 수 있거든요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[그럼... 책에 들어가서 다치거나 죽으면…]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걱정 마세요 책에서 다치셔도 작가님이 실제로 다치시지는 않아요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그냥 다시 책 밖으로 나오게 되요, 작가님의 육체는 이 도서관에 있고 영혼만 책으로 들어간거라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[근데 난 그냥 집에 가고 싶은데]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네? 죄송하지만 그건 힘들어요 게다가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[...그냥 집에 보내주면 안돼? 에초에 나는 여기 오겠다고 한적도 없고... ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[게다가?]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[내가???]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[거절을 거절하던데...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 이제 책이 있는 곳으로 안내해드릴께요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작가님이 원한다면 결말을 보셔도 다시 책속으로 들어가 책 속의 다른 결말을 볼 수도 있어요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,6 +244,66 @@
   </si>
   <si>
     <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 저희 관장님이 각 책과 어울리는 작가님들을 모집하시고 데려온답니다.</t>
+  </si>
+  <si>
+    <t>책의 결말을 보기 위해서는 작가님들이 직접 책 속으로 들어가서 이야기를 진행해야 하거든요</t>
+  </si>
+  <si>
+    <t>[왜 굳이 작가들을 데려오는 거야?]</t>
+  </si>
+  <si>
+    <t>책 속에 들어갈 수 있는건 제약이 없는 인간만 들어갈 수 있거든요</t>
+  </si>
+  <si>
+    <t>저희는 제약이 있어서 못 들어가요</t>
+  </si>
+  <si>
+    <t>[책의 결말을 굳이 봐야해?]</t>
+  </si>
+  <si>
+    <t>이 책들의 결말을 보고 싶어하는 분들이 계시거든요</t>
+  </si>
+  <si>
+    <t>[근데 난 그냥 집에 가고 싶은데]</t>
+  </si>
+  <si>
+    <t>걱정마세요 책의 결말을 1개라도 보시면 언제든지 집으로 돌아가실 수 있어요</t>
+  </si>
+  <si>
+    <t>[...그냥 집에 보내주면 안돼? 에초에 나는 이 활동을 하겠다고 한적도 없고... ]</t>
+  </si>
+  <si>
+    <t>네? 죄송하지만 그건 힘들어요 게다가</t>
+  </si>
+  <si>
+    <t>[게다가?]</t>
+  </si>
+  <si>
+    <t>[내가???]</t>
+  </si>
+  <si>
+    <t>[거절을 거절하던데...]</t>
+  </si>
+  <si>
+    <t>[잠깐 만약 책속에 들어가서 다치면?]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">책에서 다치셔도 작가님이 실제로 다치시지는 않아요, 그냥 다시 책 밖으로 도서관으로 돌아오게 되니 걱정하지 마세요 </t>
+  </si>
+  <si>
+    <t>그럼 이제 설명은 대략 한 것 같으니 책이 있는 곳으로 안내해드릴께요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작가님이 원한다면 결말을 보셔도 다시 책 속으로 들어가 책 속의 다른 결말을 볼 수도 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이야기의 결말을 부탁드립니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -717,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -749,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -813,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -877,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -1165,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -1200,7 +1190,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -1232,7 +1222,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1261,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
@@ -1296,7 +1286,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -1328,7 +1318,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -1360,7 +1350,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -1392,7 +1382,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -1424,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -1456,7 +1446,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -1485,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>11</v>
@@ -1520,7 +1510,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -1552,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
@@ -1581,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
@@ -1616,7 +1606,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -1642,16 +1632,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>7</v>
@@ -1680,7 +1670,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
@@ -1709,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>11</v>
@@ -1744,10 +1734,10 @@
         <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -1776,7 +1766,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
@@ -1805,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>11</v>
@@ -1840,7 +1830,7 @@
         <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
@@ -1869,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
@@ -1933,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>11</v>
@@ -1968,7 +1958,7 @@
         <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
@@ -1997,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
@@ -2026,16 +2016,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -2058,16 +2048,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
@@ -2096,7 +2086,7 @@
         <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -2128,7 +2118,7 @@
         <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
@@ -2160,7 +2150,7 @@
         <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
@@ -2192,7 +2182,7 @@
         <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
@@ -2224,7 +2214,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
@@ -2256,7 +2246,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
@@ -2285,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>11</v>
@@ -2320,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
@@ -2352,7 +2342,7 @@
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
@@ -2384,7 +2374,7 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
@@ -2413,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>11</v>
@@ -2448,7 +2438,7 @@
         <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
@@ -2480,7 +2470,7 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
@@ -2509,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>11</v>
@@ -2544,7 +2534,7 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
@@ -2576,7 +2566,7 @@
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
@@ -2608,7 +2598,7 @@
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
@@ -2637,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>11</v>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8E122C-6D79-43F5-AB1B-1911369D9222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140E63FF-89C1-43DF-A716-4CEE09E3FAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,57 +253,64 @@
     <t>책의 결말을 보기 위해서는 작가님들이 직접 책 속으로 들어가서 이야기를 진행해야 하거든요</t>
   </si>
   <si>
-    <t>[왜 굳이 작가들을 데려오는 거야?]</t>
-  </si>
-  <si>
-    <t>책 속에 들어갈 수 있는건 제약이 없는 인간만 들어갈 수 있거든요</t>
-  </si>
-  <si>
-    <t>저희는 제약이 있어서 못 들어가요</t>
+    <t>걱정마세요 책의 결말을 1개라도 보시면 언제든지 집으로 돌아가실 수 있어요</t>
+  </si>
+  <si>
+    <t>네? 죄송하지만 그건 힘들어요 게다가</t>
+  </si>
+  <si>
+    <t>[게다가?]</t>
+  </si>
+  <si>
+    <t>[내가???]</t>
+  </si>
+  <si>
+    <t>[거절을 거절하던데...]</t>
+  </si>
+  <si>
+    <t>[잠깐 만약 책속에 들어가서 다치면?]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">책에서 다치셔도 작가님이 실제로 다치시지는 않아요, 그냥 다시 책 밖으로 도서관으로 돌아오게 되니 걱정하지 마세요 </t>
+  </si>
+  <si>
+    <t>그럼 이제 설명은 대략 한 것 같으니 책이 있는 곳으로 안내해드릴께요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작가님이 원한다면 결말을 보셔도 다시 책 속으로 들어가 책 속의 다른 결말을 볼 수도 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이야기의 결말을 부탁드립니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[왜 작가들을 데려오는 거야?]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">책 속에는 인간분들만 들어갈 수 있거든요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희는 들어가고 싶어도 못 들어가요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[책의 결말을 굳이 봐야해?]</t>
-  </si>
-  <si>
-    <t>이 책들의 결말을 보고 싶어하는 분들이 계시거든요</t>
-  </si>
-  <si>
-    <t>[근데 난 그냥 집에 가고 싶은데]</t>
-  </si>
-  <si>
-    <t>걱정마세요 책의 결말을 1개라도 보시면 언제든지 집으로 돌아가실 수 있어요</t>
-  </si>
-  <si>
-    <t>[...그냥 집에 보내주면 안돼? 에초에 나는 이 활동을 하겠다고 한적도 없고... ]</t>
-  </si>
-  <si>
-    <t>네? 죄송하지만 그건 힘들어요 게다가</t>
-  </si>
-  <si>
-    <t>[게다가?]</t>
-  </si>
-  <si>
-    <t>[내가???]</t>
-  </si>
-  <si>
-    <t>[거절을 거절하던데...]</t>
-  </si>
-  <si>
-    <t>[잠깐 만약 책속에 들어가서 다치면?]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">책에서 다치셔도 작가님이 실제로 다치시지는 않아요, 그냥 다시 책 밖으로 도서관으로 돌아오게 되니 걱정하지 마세요 </t>
-  </si>
-  <si>
-    <t>그럼 이제 설명은 대략 한 것 같으니 책이 있는 곳으로 안내해드릴께요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작가님이 원한다면 결말을 보셔도 다시 책 속으로 들어가 책 속의 다른 결말을 볼 수도 있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 이야기의 결말을 부탁드립니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 이 책들의 결말을 보고 싶어하는 분들이 계시거든요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[난 그냥 집에 가고 싶은데]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[...그냥 집에 보내주면 안돼? 에초에 나는 작가를 하겠다고 한적도 없고... ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1478,7 +1485,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>11</v>
@@ -1510,7 +1517,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -1542,7 +1549,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
@@ -1574,7 +1581,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
@@ -1606,7 +1613,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -1638,7 +1645,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>11</v>
@@ -1670,7 +1677,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
@@ -1696,16 +1703,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>7</v>
@@ -1728,13 +1735,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>11</v>
@@ -1766,7 +1773,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
@@ -1798,7 +1805,7 @@
         <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>11</v>
@@ -1862,7 +1869,7 @@
         <v>60</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
@@ -1990,7 +1997,7 @@
         <v>60</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
@@ -2022,7 +2029,7 @@
         <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>11</v>
@@ -2054,7 +2061,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
@@ -2086,7 +2093,7 @@
         <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -2246,7 +2253,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
@@ -2310,7 +2317,7 @@
         <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
